--- a/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
+++ b/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
@@ -612,19 +612,19 @@
         <v>0.2986301369863014</v>
       </c>
       <c r="D5" t="n">
-        <v>114772.4762990291</v>
+        <v>114675.7608660715</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01270215520375952</v>
+        <v>-0.01641925629363952</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2013345021341199</v>
+        <v>0.2155139888333799</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.073502543772299</v>
+        <v>-1.503494341713601</v>
       </c>
       <c r="H5" t="n">
-        <v>8.792760753136537</v>
+        <v>12.32542315777192</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -748,19 +748,19 @@
         <v>0.7972602739726027</v>
       </c>
       <c r="D9" t="n">
-        <v>117951.8372220107</v>
+        <v>117954.3612058273</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0613640345435921</v>
+        <v>-0.06251435975850676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3077364299375565</v>
+        <v>0.3160540038138213</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.520785764836273</v>
+        <v>-1.689019865453669</v>
       </c>
       <c r="H9" t="n">
-        <v>8.9093404038132</v>
+        <v>10.27623777756433</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -782,19 +782,19 @@
         <v>1.046575342465753</v>
       </c>
       <c r="D10" t="n">
-        <v>119528.7813635168</v>
+        <v>119501.1508225489</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.09413004086265164</v>
+        <v>-0.09805678537918844</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3762842735929738</v>
+        <v>0.3991945684870488</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.524244133288902</v>
+        <v>-1.794603864231762</v>
       </c>
       <c r="H10" t="n">
-        <v>7.404424575030574</v>
+        <v>9.351016474581021</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -816,19 +816,19 @@
         <v>1.293150684931507</v>
       </c>
       <c r="D11" t="n">
-        <v>124114.848909564</v>
+        <v>121386.6426153521</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.09117028907325496</v>
+        <v>-0.1683220395657837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4233968085335629</v>
+        <v>0.6892054890913244</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.776333503404707</v>
+        <v>-2.484535634006572</v>
       </c>
       <c r="H11" t="n">
-        <v>7.648188420902539</v>
+        <v>11.72790351028722</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -920,19 +920,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D14" t="n">
-        <v>112458.2279090198</v>
+        <v>112492.0220184911</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.005862230499384257</v>
+        <v>-0.002954982496032888</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1559461381421021</v>
+        <v>0.141823251220435</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.301167218025355</v>
+        <v>-0.5007239429912972</v>
       </c>
       <c r="H14" t="n">
-        <v>12.53748302699012</v>
+        <v>5.450011004942664</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>

--- a/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
+++ b/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
@@ -864,10 +864,18 @@
       <c r="H12" t="n">
         <v>6.288697433255122</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.368443878262713</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.03920614569937778</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-1.127910942023814</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.329723141697085</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -934,10 +942,18 @@
       <c r="H14" t="n">
         <v>5.450011004942664</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0.3802977549935186</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.03528897824179948</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-1.329203199933692</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.915931171864705</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">

--- a/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
+++ b/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>7.170469853157511</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0.3358881423677913</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1128471556466689</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.885743527812297</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.546152580353009</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1110,10 +1118,18 @@
       <c r="H18" t="n">
         <v>7.989412686763538</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.470171172433311</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.05203682675916233</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.5276981592532779</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.760700825931845</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
+++ b/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
@@ -1160,10 +1160,18 @@
       <c r="H19" t="n">
         <v>5.976765079822982</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.3532612570755742</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2141232790717038</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1106676956798791</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.89103650729813</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1194,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.362469780063074</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0.6466138601298965</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4806400749445675</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2873446956070686</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.21951688451959</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
+++ b/data_processed/20250908/BTCUSDQMOMENT_20250908.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.75268514010502</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0.2853347213291343</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5652247219704619</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.47170424782565</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.699537866382877</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
